--- a/clean_data/County_Data_ALL.xlsx
+++ b/clean_data/County_Data_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NSS\Capstone\clean_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NSS\nss_capstone\clean_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AD21F-483F-48C0-AFB2-F441B177E6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E79D40-DBA5-40EF-AF0A-9B98F871A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92430D03-A01C-4999-BDAF-5720B248AEA0}"/>
+    <workbookView xWindow="2370" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{92430D03-A01C-4999-BDAF-5720B248AEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="245">
   <si>
     <t>State</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>"56005"</t>
+  </si>
+  <si>
+    <t>"44009"</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D84F47-90FD-4955-89C8-5033792C618B}">
   <dimension ref="A1:BN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1174,7 @@
     <col min="43" max="43" width="67.7109375" customWidth="1"/>
     <col min="44" max="44" width="49.7109375" customWidth="1"/>
     <col min="45" max="45" width="42.42578125" customWidth="1"/>
+    <col min="47" max="47" width="23.5703125" customWidth="1"/>
     <col min="50" max="50" width="31.85546875" customWidth="1"/>
     <col min="51" max="51" width="28.85546875" customWidth="1"/>
     <col min="52" max="52" width="29.5703125" customWidth="1"/>
@@ -1392,196 +1396,196 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <v>203858</v>
+        <v>130330</v>
       </c>
       <c r="D2" s="1">
-        <v>196281</v>
+        <v>129836</v>
       </c>
       <c r="E2" s="2">
-        <v>3.9E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F2" s="1">
-        <v>196281</v>
+        <v>129839</v>
       </c>
       <c r="G2" s="1">
-        <v>160645</v>
+        <v>126979</v>
       </c>
       <c r="H2" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="J2" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="K2" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>0.86899999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M2" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N2" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O2" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1E-3</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
       </c>
       <c r="Q2" s="2">
-        <v>2.3E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>6.2E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="S2" s="2">
-        <v>0.81499999999999995</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="T2" s="1">
-        <v>11924</v>
+        <v>7462</v>
       </c>
       <c r="U2" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="V2" s="1">
-        <v>83397</v>
+        <v>66432</v>
       </c>
       <c r="W2" s="2">
-        <v>0.73399999999999999</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="X2" s="3">
-        <v>276600</v>
+        <v>379200</v>
       </c>
       <c r="Y2" s="3">
-        <v>1552</v>
+        <v>2102</v>
       </c>
       <c r="Z2" s="3">
-        <v>487</v>
+        <v>811</v>
       </c>
       <c r="AA2" s="3">
-        <v>1142</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1968</v>
+        <v>1172</v>
+      </c>
+      <c r="AB2">
+        <v>322</v>
       </c>
       <c r="AC2" s="1">
-        <v>72638</v>
+        <v>50838</v>
       </c>
       <c r="AD2">
-        <v>2.64</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.86399999999999999</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="AF2" s="2">
-        <v>6.3E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AG2" s="2">
-        <v>0.94699999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="AI2" s="2">
-        <v>0.90700000000000003</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="AJ2" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="AK2" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.106</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AM2" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="AN2" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AO2" s="1">
-        <v>287050</v>
+        <v>438373</v>
       </c>
       <c r="AP2" s="1">
-        <v>985410</v>
+        <v>741181</v>
       </c>
       <c r="AQ2" s="1">
-        <v>232858</v>
+        <v>88903</v>
       </c>
       <c r="AR2" s="1">
-        <v>1832493</v>
+        <v>2093363</v>
       </c>
       <c r="AS2" s="3">
-        <v>9958</v>
+        <v>16550</v>
       </c>
       <c r="AT2">
-        <v>29.5</v>
+        <v>27.1</v>
       </c>
       <c r="AU2" s="3">
-        <v>73517</v>
+        <v>92001</v>
       </c>
       <c r="AV2" s="3">
-        <v>36931</v>
+        <v>45956</v>
       </c>
       <c r="AW2" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AX2" s="1">
-        <v>3556</v>
+        <v>3724</v>
       </c>
       <c r="AY2" s="1">
-        <v>50800</v>
+        <v>41638</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2342743</v>
+        <v>2322811</v>
       </c>
       <c r="BA2" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="BB2" s="1">
-        <v>17861</v>
+        <v>11675</v>
       </c>
       <c r="BC2" s="1">
-        <v>2629</v>
+        <v>3188</v>
       </c>
       <c r="BD2" s="1">
-        <v>1497</v>
+        <v>1841</v>
       </c>
       <c r="BE2">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="BF2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="BG2" s="1">
-        <v>2089</v>
+        <v>2719</v>
       </c>
       <c r="BH2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="BI2" s="1">
-        <v>2027</v>
+        <v>2535</v>
       </c>
       <c r="BJ2">
-        <v>370.7</v>
+        <v>394.3</v>
       </c>
       <c r="BK2">
-        <v>303.39999999999998</v>
+        <v>385.7</v>
       </c>
       <c r="BL2">
-        <v>529.46</v>
+        <v>329.28</v>
       </c>
       <c r="BM2">
-        <v>529.45000000000005</v>
+        <v>329.24</v>
       </c>
       <c r="BN2" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
